--- a/data/trans_orig/AIRE_1_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/AIRE_1_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3371B71-5EAC-4034-BB5E-8861AFE653D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95152050-9026-4EC5-81C2-33CBAF9BFBAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4E6E9916-DBEF-440A-BF6C-5109C48CC132}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8689C2C1-2DB8-483B-AEC3-1C6831906083}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="145">
   <si>
     <t>Población que no está dispuesta a pagar para reducir la contaminación del aire (impuesto durante 5 años) en 2023 (Tasa respuesta: 51,54%)</t>
   </si>
@@ -74,394 +74,400 @@
     <t>68,49%</t>
   </si>
   <si>
-    <t>56,39%</t>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
   </si>
   <si>
     <t>78,55%</t>
   </si>
   <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>31,51%</t>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
   </si>
   <si>
     <t>21,45%</t>
   </si>
   <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
+    <t>25,75%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -876,7 +882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A74FED39-4B4B-4BE4-A5E6-7582DED34BB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{929DA139-89E2-40FF-BED1-960A0BD3E5DC}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1620,13 +1626,13 @@
         <v>257025</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>403</v>
@@ -1635,13 +1641,13 @@
         <v>241873</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>691</v>
@@ -1650,13 +1656,13 @@
         <v>498898</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1671,13 +1677,13 @@
         <v>70700</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>141</v>
@@ -1686,13 +1692,13 @@
         <v>77621</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>217</v>
@@ -1701,13 +1707,13 @@
         <v>148321</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1763,7 +1769,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1775,13 +1781,13 @@
         <v>285011</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>760</v>
@@ -1790,13 +1796,13 @@
         <v>514398</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>1181</v>
@@ -1805,13 +1811,13 @@
         <v>799409</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1826,13 +1832,13 @@
         <v>84987</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>158</v>
@@ -1841,13 +1847,13 @@
         <v>77608</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>283</v>
@@ -1856,13 +1862,13 @@
         <v>162595</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1927,16 +1933,16 @@
         <v>1315</v>
       </c>
       <c r="D22" s="7">
-        <v>1268590</v>
+        <v>1268589</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>2107</v>
@@ -1945,13 +1951,13 @@
         <v>1514414</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>3422</v>
@@ -1960,13 +1966,13 @@
         <v>2783003</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,13 +1987,13 @@
         <v>448898</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>636</v>
@@ -1996,13 +2002,13 @@
         <v>431040</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>1084</v>
@@ -2011,13 +2017,13 @@
         <v>879938</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2029,7 +2035,7 @@
         <v>1763</v>
       </c>
       <c r="D24" s="7">
-        <v>1717488</v>
+        <v>1717487</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2073,7 +2079,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/AIRE_1_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/AIRE_1_R-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95152050-9026-4EC5-81C2-33CBAF9BFBAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2ECB530C-F8DB-4693-90AF-B6744A9CB0E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8689C2C1-2DB8-483B-AEC3-1C6831906083}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2344106C-FDCC-4AA9-9BAF-1137F31357D5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -882,7 +882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{929DA139-89E2-40FF-BED1-960A0BD3E5DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B24173-A107-4C2E-8000-33C2EBCA00A1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
